--- a/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
+++ b/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="30623" windowHeight="13835"/>
   </bookViews>
   <sheets>
     <sheet name="房产正式报告" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>编号</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>项目来源</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Code</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].ValueTime</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Customer</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Location</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].ArchitecherArea</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].SingleValue</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].TotalValue</t>
   </si>
 </sst>
 </file>
@@ -99,19 +120,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,58 +196,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,17 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,55 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,25 +290,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,157 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,26 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,15 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +549,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -581,322 +590,334 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="100" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,8 +1008,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
     <cellStyle name="常规 10 4" xfId="61"/>
     <cellStyle name="常规 11" xfId="62"/>
-    <cellStyle name="常规 13" xfId="63"/>
-    <cellStyle name="常规 11 2" xfId="64"/>
+    <cellStyle name="常规 11 2" xfId="63"/>
+    <cellStyle name="常规 13" xfId="64"/>
     <cellStyle name="常规 11 3" xfId="65"/>
     <cellStyle name="常规 11 4" xfId="66"/>
     <cellStyle name="常规 12 2" xfId="67"/>
@@ -1342,7 +1366,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
@@ -1414,47 +1438,71 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:8">
-      <c r="B2" s="6"/>
+    <row r="2" customHeight="1" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="2:8">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="5:8">
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="5:8">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="5:8">
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="5:8">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
+++ b/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30623" windowHeight="13835"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="房产正式报告" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>编号</t>
   </si>
@@ -73,19 +73,49 @@
     <t>&amp;=[ReportTemplate].ValueTime</t>
   </si>
   <si>
+    <t>&amp;=[ReportTemplate].IssuanceDate</t>
+  </si>
+  <si>
     <t>&amp;=[ReportTemplate].Customer</t>
   </si>
   <si>
+    <t>&amp;=[ReportTemplate].ProjectProperty</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].PurposeOfValuation</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].MethodOfValuation</t>
+  </si>
+  <si>
     <t>&amp;=[ReportTemplate].Location</t>
   </si>
   <si>
     <t>&amp;=[ReportTemplate].ArchitecherArea</t>
   </si>
   <si>
+    <t>&amp;=[ReportTemplate].LandArea</t>
+  </si>
+  <si>
     <t>&amp;=[ReportTemplate].SingleValue</t>
   </si>
   <si>
     <t>&amp;=[ReportTemplate].TotalValue</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Auditors</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Evaluator</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].Valuer</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].ProjectUndertaker</t>
+  </si>
+  <si>
+    <t>&amp;=[ReportTemplate].ProjectSource</t>
   </si>
 </sst>
 </file>
@@ -93,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -119,9 +149,18 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,6 +168,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -140,6 +187,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -147,12 +215,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,68 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +279,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,13 +320,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,169 +392,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +549,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,32 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,317 +627,323 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,8 +1038,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="60" builtinId="52"/>
     <cellStyle name="常规 10 4" xfId="61"/>
     <cellStyle name="常规 11" xfId="62"/>
-    <cellStyle name="常规 11 2" xfId="63"/>
-    <cellStyle name="常规 13" xfId="64"/>
+    <cellStyle name="常规 13" xfId="63"/>
+    <cellStyle name="常规 11 2" xfId="64"/>
     <cellStyle name="常规 11 3" xfId="65"/>
     <cellStyle name="常规 11 4" xfId="66"/>
     <cellStyle name="常规 12 2" xfId="67"/>
@@ -1365,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
@@ -1445,31 +1475,51 @@
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="2:8">
       <c r="B3" s="7"/>

--- a/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
+++ b/SummaryTable/OutputTemplate/SummaryTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="房产正式报告" sheetId="3" r:id="rId1"/>
@@ -123,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -149,14 +149,83 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -166,77 +235,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,63 +305,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,19 +320,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,55 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,103 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,22 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +579,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,11 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,318 +638,312 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
@@ -1411,7 +1411,7 @@
     <col min="10" max="14" width="9" style="1"/>
     <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.4" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
